--- a/data/testing/open_closed_trials.xlsx
+++ b/data/testing/open_closed_trials.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3472418-0F9D-BA42-825E-FD12F3B7C817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637615D3-82E8-EA4E-BF5C-4A4505E35C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13680" yWindow="760" windowWidth="16400" windowHeight="17600" xr2:uid="{3981B102-C044-1E40-B42D-B009E6612F05}"/>
+    <workbookView xWindow="7980" yWindow="760" windowWidth="22100" windowHeight="17600" xr2:uid="{3981B102-C044-1E40-B42D-B009E6612F05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,36 +59,6 @@
     <t>trial1</t>
   </si>
   <si>
-    <t>1A</t>
-  </si>
-  <si>
-    <t>2A</t>
-  </si>
-  <si>
-    <t>3A</t>
-  </si>
-  <si>
-    <t>4A</t>
-  </si>
-  <si>
-    <t>5A</t>
-  </si>
-  <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>9A</t>
-  </si>
-  <si>
-    <t>10A</t>
-  </si>
-  <si>
     <t>23C</t>
   </si>
   <si>
@@ -104,39 +74,6 @@
     <t>T3</t>
   </si>
   <si>
-    <t>1I</t>
-  </si>
-  <si>
-    <t>2I</t>
-  </si>
-  <si>
-    <t>3I</t>
-  </si>
-  <si>
-    <t>4I</t>
-  </si>
-  <si>
-    <t>5I</t>
-  </si>
-  <si>
-    <t>6I</t>
-  </si>
-  <si>
-    <t>7I</t>
-  </si>
-  <si>
-    <t>8I</t>
-  </si>
-  <si>
-    <t>9I</t>
-  </si>
-  <si>
-    <t>10I</t>
-  </si>
-  <si>
-    <t>36C</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -150,6 +87,69 @@
   </si>
   <si>
     <t>final.status</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>I4</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>35C</t>
   </si>
 </sst>
 </file>
@@ -523,11 +523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F81089-18E6-9F40-91D3-4ED4A488808D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1967B3-C2A9-304D-8D38-B7A88443B0F4}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -552,4124 +552,4124 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>853</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
+      <c r="G2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
         <v>1175</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
+      <c r="G3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
         <v>17</v>
       </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
         <v>1418</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
         <v>17</v>
       </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1">
         <v>1730</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
+      <c r="G5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F6" s="1">
         <v>807</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
+      <c r="G6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1">
         <v>1110</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>33</v>
+      <c r="G7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>1460</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
+      <c r="G8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1">
         <v>1666</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>33</v>
+      <c r="G9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F10" s="1">
         <v>948</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>33</v>
+      <c r="G10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F11" s="1">
         <v>1152</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>33</v>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F12" s="1">
         <v>1643</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>33</v>
+      <c r="G12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1">
         <v>2063</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
+      <c r="G13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>17</v>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F14" s="1">
         <v>814</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>17</v>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F15" s="1">
         <v>1100</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>34</v>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F16" s="1">
         <v>1144</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
+      <c r="G16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>17</v>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F17" s="1">
         <v>1508</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>34</v>
+      <c r="G17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>17</v>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F18" s="1">
         <v>1014</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>34</v>
+      <c r="G18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>17</v>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F19" s="1">
         <v>1266</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
+      <c r="G19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>17</v>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1">
         <v>1580</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>34</v>
+      <c r="G20" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F21" s="1">
         <v>1871</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>34</v>
+      <c r="G21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>17</v>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F22" s="1">
         <v>923</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
+      <c r="G22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>17</v>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F23" s="1">
         <v>1419</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>33</v>
+      <c r="G23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1">
         <v>1672</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>33</v>
+      <c r="G24" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>17</v>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1">
         <v>1771</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>33</v>
+      <c r="G25" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>17</v>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1">
         <v>935</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>34</v>
+      <c r="G26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>17</v>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1">
         <v>1154</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>34</v>
+      <c r="G27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1">
         <v>1239</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>34</v>
+      <c r="G28" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>17</v>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F29" s="1">
         <v>1524</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>34</v>
+      <c r="G29" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>17</v>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1">
         <v>960</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>33</v>
+      <c r="G30" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>17</v>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1">
         <v>1276</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>33</v>
+      <c r="G31" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>17</v>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1">
         <v>1597</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>33</v>
+      <c r="G32" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>17</v>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1">
         <v>2005</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>33</v>
+      <c r="G33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>17</v>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1">
         <v>842</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>33</v>
+      <c r="G34" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F35" s="1">
         <v>1245</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>33</v>
+      <c r="G35" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>17</v>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F36" s="1">
         <v>1392</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>33</v>
+      <c r="G36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>17</v>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1">
         <v>1701</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>33</v>
+      <c r="G37" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>17</v>
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1">
         <v>996</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>34</v>
+      <c r="G38" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>17</v>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1">
         <v>1128</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>34</v>
+      <c r="G39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F40" s="1">
         <v>1539</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>34</v>
+      <c r="G40" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>17</v>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F41" s="1">
         <v>1785</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>34</v>
+      <c r="G41" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>37</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1">
         <v>1108</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>34</v>
+      <c r="G42" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F43" s="1">
         <v>2037</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>34</v>
+      <c r="G43" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>32</v>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>37</v>
       </c>
       <c r="D44" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F44" s="1">
         <v>2881</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>34</v>
+      <c r="G44" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>32</v>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F45" s="1">
         <v>3385</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>34</v>
+      <c r="G45" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>32</v>
+      <c r="B46" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F46" s="1">
         <v>900</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>34</v>
+      <c r="G46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" t="s">
+        <v>37</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F47" s="1">
         <v>1628</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>34</v>
+      <c r="G47" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>32</v>
+      <c r="B48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
       </c>
       <c r="D48" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1">
         <v>2107</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>34</v>
+      <c r="G48" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>32</v>
+      <c r="B49" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F49" s="1">
         <v>3139</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>34</v>
+      <c r="G49" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F50" s="1">
         <v>965</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>34</v>
+      <c r="G50" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>32</v>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1">
         <v>1485</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>34</v>
+      <c r="G51" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>32</v>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
       </c>
       <c r="D52" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1">
         <v>1806</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>34</v>
+      <c r="G52" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>32</v>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
       </c>
       <c r="D53" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F53" s="1">
         <v>2570</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>34</v>
+      <c r="G53" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>32</v>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>37</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F54" s="1">
         <v>1028</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>34</v>
+      <c r="G54" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>32</v>
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1">
         <v>1566</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>34</v>
+      <c r="G55" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>32</v>
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>37</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F56" s="1">
         <v>1873</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>34</v>
+      <c r="G56" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>32</v>
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F57" s="1">
         <v>2895</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>34</v>
+      <c r="G57" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>32</v>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1">
         <v>1004</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>34</v>
+      <c r="G58" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>32</v>
+      <c r="B59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" t="s">
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F59" s="1">
         <v>1476</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>34</v>
+      <c r="G59" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>32</v>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F60" s="1">
         <v>1738</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>34</v>
+      <c r="G60" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>32</v>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F61" s="1">
         <v>2115</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>34</v>
+      <c r="G61" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B62" t="s">
         <v>32</v>
       </c>
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F62" s="1">
         <v>1070</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>33</v>
+      <c r="G62" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B63" t="s">
         <v>32</v>
       </c>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1">
         <v>1636</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>33</v>
+      <c r="G63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="1" t="s">
+      <c r="B64" t="s">
         <v>32</v>
       </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F64" s="1">
         <v>2075</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>33</v>
+      <c r="G64" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="B65" t="s">
         <v>32</v>
       </c>
+      <c r="C65" t="s">
+        <v>37</v>
+      </c>
       <c r="D65" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F65" s="1">
         <v>2393</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>33</v>
+      <c r="G65" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>32</v>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>37</v>
       </c>
       <c r="D66" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1">
         <v>1040</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>33</v>
+      <c r="G66" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>32</v>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>37</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F67" s="1">
         <v>1589</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>33</v>
+      <c r="G67" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>32</v>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>37</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F68" s="1">
         <v>1770</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>33</v>
+      <c r="G68" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>32</v>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>37</v>
       </c>
       <c r="D69" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F69" s="1">
         <v>1996</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>33</v>
+      <c r="G69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>32</v>
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" t="s">
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F70" s="1">
         <v>1020</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>33</v>
+      <c r="G70" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>32</v>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F71" s="1">
         <v>1733</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>33</v>
+      <c r="G71" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>32</v>
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>37</v>
       </c>
       <c r="D72" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F72" s="1">
         <v>1519</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>33</v>
+      <c r="G72" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>32</v>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F73" s="1">
         <v>2235</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>33</v>
+      <c r="G73" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>32</v>
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>37</v>
       </c>
       <c r="D74" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F74" s="1">
         <v>1039</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>34</v>
+      <c r="G74" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>32</v>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>37</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F75" s="1">
         <v>1511</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>34</v>
+      <c r="G75" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>32</v>
+      <c r="B76" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" t="s">
+        <v>37</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F76" s="1">
         <v>1746</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>34</v>
+      <c r="G76" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>32</v>
+      <c r="B77" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" t="s">
+        <v>37</v>
       </c>
       <c r="D77" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F77" s="1">
         <v>2141</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>34</v>
+      <c r="G77" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>32</v>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78" t="s">
+        <v>37</v>
       </c>
       <c r="D78" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F78" s="1">
         <v>1009</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>34</v>
+      <c r="G78" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>32</v>
+      <c r="B79" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" t="s">
+        <v>37</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F79" s="1">
         <v>1952</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>34</v>
+      <c r="G79" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>32</v>
+      <c r="B80" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" t="s">
+        <v>37</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F80" s="1">
         <v>3250</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>34</v>
+      <c r="G80" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>32</v>
+      <c r="B81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" t="s">
+        <v>37</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F81" s="1">
         <v>3994</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>34</v>
+      <c r="G81" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
         <v>17</v>
       </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
       <c r="D82" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F82" s="1">
         <v>622</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>33</v>
+      <c r="G82" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
         <v>17</v>
       </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F83" s="1">
         <v>955</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>33</v>
+      <c r="G83" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>35</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
         <v>17</v>
       </c>
+      <c r="C84" t="s">
+        <v>7</v>
+      </c>
       <c r="D84" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F84" s="1">
         <v>1232</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>33</v>
+      <c r="G84" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>35</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
         <v>17</v>
       </c>
+      <c r="C85" t="s">
+        <v>7</v>
+      </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F85" s="1">
-        <v>1637</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>1787</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>35</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
         <v>17</v>
       </c>
+      <c r="C86" t="s">
+        <v>7</v>
+      </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F86" s="1">
-        <v>1787</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>33</v>
+        <v>1637</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>35</v>
-      </c>
-      <c r="B87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F87" s="1">
         <v>540</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>33</v>
+      <c r="G87" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>35</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" t="s">
+        <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F88" s="1">
         <v>880</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>33</v>
+      <c r="G88" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>35</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F89" s="1">
         <v>976</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>33</v>
+      <c r="G89" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>35</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F90" s="1">
         <v>1297</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>33</v>
+      <c r="G90" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>35</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" t="s">
+        <v>7</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F91" s="1">
         <v>1779</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>33</v>
+      <c r="G91" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>35</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" t="s">
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F92" s="1">
         <v>726</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>33</v>
+      <c r="G92" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>35</v>
-      </c>
-      <c r="B93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" t="s">
         <v>9</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D93" t="s">
-        <v>19</v>
-      </c>
       <c r="E93" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F93" s="1">
         <v>1113</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>33</v>
+      <c r="G93" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1">
         <v>1368</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>33</v>
+      <c r="G94" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F95" s="1">
         <v>1406</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>33</v>
+      <c r="G95" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F96" s="1">
         <v>1949</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>33</v>
+      <c r="G96" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B97" t="s">
+        <v>20</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F97" s="1">
         <v>877</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>33</v>
+      <c r="G97" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>35</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F98" s="1">
         <v>897</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>33</v>
+      <c r="G98" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" t="s">
-        <v>20</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F99" s="1">
         <v>1759</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>33</v>
+      <c r="G99" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>35</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B100" t="s">
+        <v>20</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F100" s="1">
         <v>3669</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>33</v>
+      <c r="G100" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F101" s="1">
         <v>3743</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>33</v>
+      <c r="G101" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F102" s="1">
         <v>600</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>33</v>
+      <c r="G102" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F103" s="1">
         <v>1499</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>33</v>
+      <c r="G103" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B104" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F104" s="1">
         <v>1747</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>33</v>
+      <c r="G104" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D105" t="s">
-        <v>36</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F105" s="1">
-        <v>2502</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>33</v>
+        <v>2786</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
-        <v>2786</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>33</v>
+        <v>2502</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>35</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" t="s">
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1">
         <v>535</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>33</v>
+      <c r="G107" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>35</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F108" s="1">
         <v>1638</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>33</v>
+      <c r="G108" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>35</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F109" s="1">
         <v>1020</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>33</v>
+      <c r="G109" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>35</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B110" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F110" s="1">
         <v>2398</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>33</v>
+      <c r="G110" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>35</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" t="s">
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F111" s="1">
         <v>2502</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>33</v>
+      <c r="G111" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>35</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>23</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F112" s="1">
         <v>597</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>33</v>
+      <c r="G112" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" t="s">
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F113" s="1">
         <v>848</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>33</v>
+      <c r="G113" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>35</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114" t="s">
+        <v>7</v>
       </c>
       <c r="D114" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F114" s="1">
         <v>1152</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>33</v>
+      <c r="G114" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>35</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" t="s">
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F115" s="1">
         <v>1712</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>33</v>
+      <c r="G115" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>35</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F116" s="1">
         <v>1759</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>33</v>
+      <c r="G116" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>35</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F117" s="1">
         <v>603</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>34</v>
+      <c r="G117" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>35</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118" t="s">
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F118" s="1">
         <v>763</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>34</v>
+      <c r="G118" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F119" s="1">
         <v>1220</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>34</v>
+      <c r="G119" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>35</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F120" s="1">
         <v>1572</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>34</v>
+      <c r="G120" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>35</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F121" s="1">
         <v>2102</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>34</v>
+      <c r="G121" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>35</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F122" s="1">
         <v>814</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>33</v>
+      <c r="G122" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>35</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F123" s="1">
         <v>1169</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>33</v>
+      <c r="G123" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>35</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s">
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F124" s="1">
         <v>1834</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>33</v>
+      <c r="G124" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>35</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F125" s="1">
         <v>2465</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>33</v>
+      <c r="G125" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>35</v>
-      </c>
-      <c r="B126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
         <v>15</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" t="s">
-        <v>36</v>
-      </c>
       <c r="E126" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F126" s="1">
         <v>3050</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>33</v>
+      <c r="G126" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>35</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" t="s">
+        <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F127" s="1">
         <v>743</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>33</v>
+      <c r="G127" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>35</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>26</v>
+      </c>
+      <c r="C128" t="s">
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F128" s="1">
         <v>899</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>33</v>
+      <c r="G128" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>35</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" t="s">
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F129" s="1">
         <v>1065</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>33</v>
+      <c r="G129" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" t="s">
+        <v>7</v>
       </c>
       <c r="D130" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F130" s="1">
         <v>1427</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>33</v>
+      <c r="G130" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>35</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
       </c>
       <c r="D131" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F131" s="1">
         <v>1633</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>33</v>
+      <c r="G131" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>35</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="s">
+        <v>37</v>
       </c>
       <c r="D132" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F132" s="1">
         <v>758</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>33</v>
+      <c r="G132" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>35</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="s">
+        <v>37</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F133" s="1">
         <v>3057</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>33</v>
+      <c r="G133" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>35</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" t="s">
+        <v>37</v>
       </c>
       <c r="D134" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F134" s="1">
         <v>4019</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>33</v>
+      <c r="G134" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>35</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" t="s">
+        <v>37</v>
       </c>
       <c r="D135" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F135" s="1">
         <v>8164</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>33</v>
+      <c r="G135" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>35</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" t="s">
+        <v>37</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F136" s="1">
         <v>8335</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>33</v>
+      <c r="G136" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>35</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>28</v>
+      </c>
+      <c r="C137" t="s">
+        <v>37</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F137" s="1">
         <v>725</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>33</v>
+      <c r="G137" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>35</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>37</v>
       </c>
       <c r="D138" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F138" s="1">
         <v>1596</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>33</v>
+      <c r="G138" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>35</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139" t="s">
+        <v>37</v>
       </c>
       <c r="D139" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F139" s="1">
         <v>2194</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>33</v>
+      <c r="G139" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>35</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B140" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" t="s">
+        <v>37</v>
       </c>
       <c r="D140" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F140" s="1">
         <v>2455</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>33</v>
+      <c r="G140" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>35</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B141" t="s">
+        <v>28</v>
+      </c>
+      <c r="C141" t="s">
+        <v>37</v>
       </c>
       <c r="D141" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F141" s="1">
         <v>2913</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>33</v>
+      <c r="G141" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>35</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" t="s">
+        <v>37</v>
       </c>
       <c r="D142" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F142" s="1">
         <v>791</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>34</v>
+      <c r="G142" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>35</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B143" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" t="s">
+        <v>37</v>
       </c>
       <c r="D143" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F143" s="1">
         <v>1182</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>34</v>
+      <c r="G143" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>35</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B144" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" t="s">
+        <v>37</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F144" s="1">
         <v>1606</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>34</v>
+      <c r="G144" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B145" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" t="s">
+        <v>37</v>
       </c>
       <c r="D145" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F145" s="1">
         <v>1981</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>34</v>
+      <c r="G145" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>35</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B146" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" t="s">
+        <v>37</v>
       </c>
       <c r="D146" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F146" s="1">
         <v>1986</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>34</v>
+      <c r="G146" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>35</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>37</v>
       </c>
       <c r="D147" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F147" s="1">
         <v>1023</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>33</v>
+      <c r="G147" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>35</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>37</v>
       </c>
       <c r="D148" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F148" s="1">
         <v>1506</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>33</v>
+      <c r="G148" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>35</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F149" s="1">
-        <v>2252</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>33</v>
+        <v>2310</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>35</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>37</v>
       </c>
       <c r="D150" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F150" s="1">
-        <v>2310</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>33</v>
+        <v>2252</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>35</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B151" t="s">
+        <v>30</v>
+      </c>
+      <c r="C151" t="s">
+        <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F151" s="1">
         <v>2357</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>33</v>
+      <c r="G151" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>35</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B152" t="s">
+        <v>31</v>
+      </c>
+      <c r="C152" t="s">
+        <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F152" s="1">
         <v>822</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>33</v>
+      <c r="G152" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>35</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B153" t="s">
+        <v>31</v>
+      </c>
+      <c r="C153" t="s">
+        <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F153" s="1">
         <v>2277</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>33</v>
+      <c r="G153" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>35</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>31</v>
+      </c>
+      <c r="C154" t="s">
+        <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F154" s="1">
         <v>2632</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>33</v>
+      <c r="G154" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B155" t="s">
+        <v>31</v>
+      </c>
+      <c r="C155" t="s">
+        <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F155" s="1">
-        <v>3441</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>33</v>
+        <v>3601</v>
+      </c>
+      <c r="G155" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>31</v>
+      </c>
+      <c r="C156" t="s">
+        <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F156" s="1">
-        <v>3601</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>33</v>
+        <v>3441</v>
+      </c>
+      <c r="G156" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>35</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157" t="s">
         <v>32</v>
       </c>
+      <c r="C157" t="s">
+        <v>37</v>
+      </c>
       <c r="D157" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F157" s="1">
         <v>791</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>34</v>
+      <c r="G157" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
         <v>32</v>
       </c>
+      <c r="C158" t="s">
+        <v>37</v>
+      </c>
       <c r="D158" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F158" s="1">
-        <v>1824</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>34</v>
+        <v>2262</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>35</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159" t="s">
         <v>32</v>
       </c>
+      <c r="C159" t="s">
+        <v>37</v>
+      </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F159" s="1">
-        <v>2262</v>
-      </c>
-      <c r="G159" s="1" t="s">
-        <v>34</v>
+        <v>1824</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>35</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
         <v>32</v>
       </c>
+      <c r="C160" t="s">
+        <v>37</v>
+      </c>
       <c r="D160" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F160" s="1">
-        <v>3734</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>34</v>
+        <v>4477</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161" t="s">
         <v>32</v>
       </c>
+      <c r="C161" t="s">
+        <v>37</v>
+      </c>
       <c r="D161" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F161" s="1">
-        <v>4477</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>34</v>
+        <v>3734</v>
+      </c>
+      <c r="G161" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>35</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" t="s">
+        <v>37</v>
       </c>
       <c r="D162" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F162" s="1">
         <v>930</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>34</v>
+      <c r="G162" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" t="s">
+        <v>37</v>
       </c>
       <c r="D163" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F163" s="1">
         <v>2884</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>34</v>
+      <c r="G163" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>35</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" t="s">
+        <v>37</v>
       </c>
       <c r="D164" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F164" s="1">
         <v>4070</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>34</v>
+      <c r="G164" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>35</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s">
+        <v>37</v>
       </c>
       <c r="D165" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F165" s="1">
         <v>5019</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>34</v>
+      <c r="G165" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>35</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B166" t="s">
+        <v>34</v>
+      </c>
+      <c r="C166" t="s">
+        <v>37</v>
       </c>
       <c r="D166" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F166" s="1">
         <v>723</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>34</v>
+      <c r="G166" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>35</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167" t="s">
+        <v>37</v>
       </c>
       <c r="D167" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F167" s="1">
         <v>2062</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>34</v>
+      <c r="G167" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>35</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C168" t="s">
+        <v>37</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F168" s="1">
         <v>3849</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>34</v>
+      <c r="G168" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>35</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C169" t="s">
+        <v>37</v>
       </c>
       <c r="D169" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F169" s="1">
-        <v>5526</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>34</v>
+        <v>6494</v>
+      </c>
+      <c r="G169" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>35</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C170" t="s">
+        <v>37</v>
       </c>
       <c r="D170" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F170" s="1">
-        <v>6494</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>34</v>
+        <v>5526</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171" t="s">
         <v>35</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>32</v>
+      <c r="C171" t="s">
+        <v>37</v>
       </c>
       <c r="D171" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F171" s="1">
         <v>903</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>33</v>
+      <c r="G171" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172" t="s">
         <v>35</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>32</v>
+      <c r="C172" t="s">
+        <v>37</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F172" s="1">
-        <v>1852</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>33</v>
+        <v>1907</v>
+      </c>
+      <c r="G172" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" t="s">
         <v>35</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>32</v>
+      <c r="C173" t="s">
+        <v>37</v>
       </c>
       <c r="D173" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F173" s="1">
-        <v>1907</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>33</v>
+        <v>1852</v>
+      </c>
+      <c r="G173" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174" t="s">
         <v>35</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>32</v>
+      <c r="C174" t="s">
+        <v>37</v>
       </c>
       <c r="D174" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F174" s="1">
         <v>2816</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>33</v>
+      <c r="G174" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175" t="s">
         <v>35</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>32</v>
+      <c r="C175" t="s">
+        <v>37</v>
       </c>
       <c r="D175" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F175" s="1">
         <v>2879</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>33</v>
+      <c r="G175" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>35</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B176" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" t="s">
+        <v>37</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F176" s="1">
         <v>680</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>34</v>
+      <c r="G176" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>35</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>36</v>
+      </c>
+      <c r="C177" t="s">
+        <v>37</v>
       </c>
       <c r="D177" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F177" s="1">
         <v>2142</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>34</v>
+      <c r="G177" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>35</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B178" t="s">
+        <v>36</v>
+      </c>
+      <c r="C178" t="s">
+        <v>37</v>
       </c>
       <c r="D178" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F178" s="1">
         <v>2463</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>34</v>
+      <c r="G178" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>35</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B179" t="s">
+        <v>36</v>
+      </c>
+      <c r="C179" t="s">
+        <v>37</v>
       </c>
       <c r="D179" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F179" s="1">
-        <v>3715</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>34</v>
+        <v>4116</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>35</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180" t="s">
+        <v>37</v>
       </c>
       <c r="D180" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F180" s="1">
-        <v>4116</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>34</v>
+        <v>3715</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/testing/open_closed_trials.xlsx
+++ b/data/testing/open_closed_trials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/resazurin-assay-development/data/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637615D3-82E8-EA4E-BF5C-4A4505E35C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074995F6-B35D-9947-8BC6-EBF4CEE56919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7980" yWindow="760" windowWidth="22100" windowHeight="17600" xr2:uid="{3981B102-C044-1E40-B42D-B009E6612F05}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="39">
   <si>
     <t>trial</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>35C</t>
+  </si>
+  <si>
+    <t>Partial Open</t>
   </si>
 </sst>
 </file>
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C1967B3-C2A9-304D-8D38-B7A88443B0F4}">
   <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="I170" sqref="I170"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117:G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -943,7 +946,7 @@
         <v>1014</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -966,7 +969,7 @@
         <v>1266</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,7 +992,7 @@
         <v>1580</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1012,7 +1015,7 @@
         <v>1871</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1127,7 +1130,7 @@
         <v>935</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1150,7 +1153,7 @@
         <v>1154</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1173,7 +1176,7 @@
         <v>1239</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1196,7 +1199,7 @@
         <v>1524</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -1587,7 +1590,7 @@
         <v>900</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1610,7 +1613,7 @@
         <v>1628</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -1633,7 +1636,7 @@
         <v>2107</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1656,7 +1659,7 @@
         <v>3139</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -1679,7 +1682,7 @@
         <v>965</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1702,7 +1705,7 @@
         <v>1485</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1725,7 +1728,7 @@
         <v>1806</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -1748,7 +1751,7 @@
         <v>2570</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1771,7 +1774,7 @@
         <v>1028</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1794,7 +1797,7 @@
         <v>1566</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1817,7 +1820,7 @@
         <v>1873</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1840,7 +1843,7 @@
         <v>2895</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2047,7 +2050,7 @@
         <v>1040</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
@@ -2070,7 +2073,7 @@
         <v>1589</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2093,7 +2096,7 @@
         <v>1770</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -2116,7 +2119,7 @@
         <v>1996</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -2139,7 +2142,7 @@
         <v>1020</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -2162,7 +2165,7 @@
         <v>1733</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
@@ -2185,7 +2188,7 @@
         <v>1519</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2208,7 +2211,7 @@
         <v>2235</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -3220,7 +3223,7 @@
         <v>603</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3243,7 +3246,7 @@
         <v>763</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3266,7 +3269,7 @@
         <v>1220</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3289,7 +3292,7 @@
         <v>1572</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3312,7 +3315,7 @@
         <v>2102</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3795,7 +3798,7 @@
         <v>791</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -3818,7 +3821,7 @@
         <v>1182</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -3841,7 +3844,7 @@
         <v>1606</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -3864,7 +3867,7 @@
         <v>1981</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -3887,7 +3890,7 @@
         <v>1986</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -4140,7 +4143,7 @@
         <v>791</v>
       </c>
       <c r="G157" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -4163,7 +4166,7 @@
         <v>2262</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -4186,7 +4189,7 @@
         <v>1824</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4209,7 +4212,7 @@
         <v>4477</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -4232,7 +4235,7 @@
         <v>3734</v>
       </c>
       <c r="G161" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
